--- a/data/hotels_by_city/Houston/Houston_shard_104.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_104.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56577-d124459-Reviews-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Inn-Suites-Southwest-Fwy-At-Westpark.h18528.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,312 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r579864753-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>56577</t>
+  </si>
+  <si>
+    <t>124459</t>
+  </si>
+  <si>
+    <t>579864753</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good for the price! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rooms were a little rough &amp; dated but overall clean. Breakfast was good and included bagels, scones, fruit, juice &amp; coffee. The pool was closed due to it being seasonal but looked small but nice. We would stay at it again. 1 King size bed. </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r570625727-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>570625727</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Clean, friendly staff</t>
+  </si>
+  <si>
+    <t>We stayed here when we attended a local event and the hotel was clean, a good price and the staff were friendly. We would stay there again if we decide to attend other events in the area. The location was also near local food places which was a plus.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r511999574-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>511999574</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>Clean &amp; good price</t>
+  </si>
+  <si>
+    <t>Stayed for only one night.  Check in and check out was quick . The room was ok and clean. The first thing that hit me was the strong smell of Clorox, but got used to it quick. Bed and pillows were comfy. Didn't get to enjoy breakfast, but they do have one. It was good for the price in comparison to others that are inexpensive, but terrible. Would stay again if I ever find my self in Rosenberg , TX.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r385138845-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>385138845</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Ms.H3Love</t>
+  </si>
+  <si>
+    <t>Friendly attitude from staff comfortable beds extremely clean rooms continental breakfast has a great variety to choose from easy access on and off the freeway outdoor swimming pool. Variety of restaurants in the surrounding area</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r384872372-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>384872372</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>This hotel was clean and the bed were comfortable. The staff was very friendly. The price was a little high for me. The breakfast was poor for the price I paid to stay there. I would stay again if it was the last hotel that had rooms but not my first choice because of price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r351975106-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>351975106</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>Excelent</t>
+  </si>
+  <si>
+    <t>Everything from desk clerk to water pressure in the shower was just as I like it.  Room, bath, hallway, elevator and reception area was very clean, smelled good, and had all the amenities.  Television worked well and the tub was nice.  Will visit this motel again.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r309032350-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>309032350</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Clean and comfortable, but starting to run down a bit</t>
+  </si>
+  <si>
+    <t>We've stayed here twice a year for the past several years (antique show at fairgrounds) and have always enjoyed our stay.  The staff is friendly and helpful and the room is always clean and beds very comfortable.  This time, however, we noticed a dip in attention to details that is a bit troubling.  For the three days we stayed, the ice machine didn't work very well - almost no ice.  The breakfast here used to be very nice, but this time it was a disappointment.  One of the days they started shutting it down before 9am.   There was a burned out light over the vanity that wasn't replaced while we were there.  There were several lights in the hallway that also were not replaced during our stay.  Don't know what's going on here, but we will be back in February and will report on conditions then.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>We've stayed here twice a year for the past several years (antique show at fairgrounds) and have always enjoyed our stay.  The staff is friendly and helpful and the room is always clean and beds very comfortable.  This time, however, we noticed a dip in attention to details that is a bit troubling.  For the three days we stayed, the ice machine didn't work very well - almost no ice.  The breakfast here used to be very nice, but this time it was a disappointment.  One of the days they started shutting it down before 9am.   There was a burned out light over the vanity that wasn't replaced while we were there.  There were several lights in the hallway that also were not replaced during our stay.  Don't know what's going on here, but we will be back in February and will report on conditions then.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r286359978-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>286359978</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Daughter Wedding stay</t>
+  </si>
+  <si>
+    <t>I had booked four nights at this hotel for myself and then book four other rooms for two nights. I was not impressed with hotel. Food was not up to the standard that I get at other Comfort Inns. And they where painting and there was nothing they where doing to try and clear smell out of hall ways and the first night there was a vehicle that was allowed to stay in the parking lot with horn going off every 10 minutes.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r267225871-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>267225871</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Rooms were OK, front desk wasn't</t>
+  </si>
+  <si>
+    <t>My son had checked in here earlier, party of two.  I came a bit later, party of one.  I specifically asked for the best price.  The clerk (Molly) spend some minutes on the computer, ostensibly looking for my best possible rate.  She finally announced that $110 was the best she could do.  So I took her at her word and accepted the price.  As chance would have it, my room was immediately next door to my son's.  The rooms  were identical.  We naturally compared rates.  He got his for $90 and mine was $110 (plus tax).  Identical rooms.  Two in his party, one in mine.He took it upon himself to speak to the front desk on my behalf.  Different clerk by now.  Clerk said he didn't have code to change the rate, but morning clerk would.  My son left very early and I decided to go by the front desk myself.  I was told, in a bit of a flippant tone, that no one could change my rate and I should have negotiated a better price when I checked in.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>My son had checked in here earlier, party of two.  I came a bit later, party of one.  I specifically asked for the best price.  The clerk (Molly) spend some minutes on the computer, ostensibly looking for my best possible rate.  She finally announced that $110 was the best she could do.  So I took her at her word and accepted the price.  As chance would have it, my room was immediately next door to my son's.  The rooms  were identical.  We naturally compared rates.  He got his for $90 and mine was $110 (plus tax).  Identical rooms.  Two in his party, one in mine.He took it upon himself to speak to the front desk on my behalf.  Different clerk by now.  Clerk said he didn't have code to change the rate, but morning clerk would.  My son left very early and I decided to go by the front desk myself.  I was told, in a bit of a flippant tone, that no one could change my rate and I should have negotiated a better price when I checked in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r235590085-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>235590085</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>It was ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We arrived late and dead tired. It took forever to get checked in. The poor girl couldn't spell very well and we use a discount program called CLC. She really had a difficult time with it but finally got it fine. After that she was very nice but until then I had a bad feeling. The room wax typical for Comfort Inns. Clean, large, and comfortable. Would definitely stay there again. </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r222471280-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>222471280</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>Nice place to stay.</t>
+  </si>
+  <si>
+    <t>Checked in at 8:00 pm on a Friday evening while traveling on business.  The room was clean and the bed was comfortable.  The breakfast included both egg and sausage patties.  The wi-fi was a little weak in my room with the signal from Lowe's next door sometimes being stronger than the motel connection.  I plan to stay at this location again.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r199763214-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>199763214</t>
+  </si>
+  <si>
+    <t>04/03/2014</t>
+  </si>
+  <si>
+    <t>Keep going pass</t>
+  </si>
+  <si>
+    <t>Room rate was average, veteran discount, outside look clean. Got a room and after entering we find waste paper under bathroom door on floor. Ok, we can live with that. After coming back from dinner, I was going that a shower and pull back the shower curtain and a use wash cloth fell on my head. That would be a enough to move but is was late.Next morning, I tell the man at the front desk about what we found it the room and his rely was " ok, I'll tell housecleaning" that's it. Will not stop there again.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r175820552-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>175820552</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Basic but adequate hotel</t>
+  </si>
+  <si>
+    <t>This is a basic hotel. It was generally clean and service was pretty decent. The breakfast was super simple and I opted to go to the waffle house close by (driving but not walking distance) for Breakfast rather than eat at the hotel. They rope off the breakfast area at 9:00 a.m. The problem is that the water fountain is inside this roped off area.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r147826300-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>147826300</t>
+  </si>
+  <si>
+    <t>12/20/2012</t>
+  </si>
+  <si>
+    <t>Great rest for a traveler</t>
+  </si>
+  <si>
+    <t>I have been stopping here running back and forth from Mississippi to Corpus Christi for over 10 years on personal trips. Consistantly this Comfort Inn has delivered, comfort large rooms with all the amenities. Free wifi, refrgerator,micro,sofa,desk,updated beds, friendly staff. So happy they are keeping up with the times. A great stop at night before driving thru Houston or a great stop at night just south of Houston!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r136290280-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>136290280</t>
+  </si>
+  <si>
+    <t>08/05/2012</t>
+  </si>
+  <si>
+    <t>Very excelent rooms,</t>
+  </si>
+  <si>
+    <t>The rooms are very clean, and the beds are comfortable to sleep on.The rooms are spacious, clean &amp; comfortable. Contintal breakfast was great. We blocked rooms for two weddings. All out of town guest were very satisfied. We also book rooms for out of town business travelers when they are visiting Rosenberg.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r18378750-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>18378750</t>
+  </si>
+  <si>
+    <t>07/29/2008</t>
+  </si>
+  <si>
+    <t>This hotel is great.</t>
+  </si>
+  <si>
+    <t>The rooms are spacious, clean &amp; comfortable. Contintal breakfast was great. We blocked rooms for two weddings. All out of town guest were very satisfied. We also book rooms for out of town business travelers when they are visiting Rosenberg.</t>
+  </si>
+  <si>
+    <t>October 2006</t>
   </si>
 </sst>
 </file>
@@ -532,11 +847,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +879,1061 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_104.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_104.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,81 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r612600941-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>56577</t>
+  </si>
+  <si>
+    <t>124459</t>
+  </si>
+  <si>
+    <t>612600941</t>
+  </si>
+  <si>
+    <t>08/31/2018</t>
+  </si>
+  <si>
+    <t>Does not have suites as offered online</t>
+  </si>
+  <si>
+    <t>After making a reservation online for a 2 Queen suite with a sofabed we were told upon arrival that they do not offer suites.  We showed our confirmation stating we had booked a suite thru the hotel website.  They again stated they don't have suites and that we could not cancel our reservation for that night because we had already passed the time for cancellation.  This is fraud to advertise suites if you don't really have them to offer.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r598611613-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>598611613</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Quick Getaway</t>
+  </si>
+  <si>
+    <t>Excellent place. Room was clean, comfortablle bed. Price could not be beat. Breakfast was so-so. A/c worked great. Location was convenient, despite road construction all around.No hesitation to stay here again!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r587851036-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>587851036</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Mediocare</t>
+  </si>
+  <si>
+    <t>I checked in and the smoke alarm started beeping due to low battery.  Called the front desk and the front desk person came with a battery to fix it.  He was not successful so I was moved to a new room.  Rooms are old and need updating.  Woke up the next morning and came down at 7: 20 am for breakfast and they had nothing ready. The lady said about 10-20 minutes.  Well, does not help me, I have 15 minutes to eat and have to go to work.  Was told by one of the workers "someone called in sick and the person did not order enough food even though we were going to be full".  Staff was nice and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I checked in and the smoke alarm started beeping due to low battery.  Called the front desk and the front desk person came with a battery to fix it.  He was not successful so I was moved to a new room.  Rooms are old and need updating.  Woke up the next morning and came down at 7: 20 am for breakfast and they had nothing ready. The lady said about 10-20 minutes.  Well, does not help me, I have 15 minutes to eat and have to go to work.  Was told by one of the workers "someone called in sick and the person did not order enough food even though we were going to be full".  Staff was nice and friendly.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r579864753-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
-    <t>56577</t>
-  </si>
-  <si>
-    <t>124459</t>
-  </si>
-  <si>
     <t>579864753</t>
   </si>
   <si>
@@ -177,9 +240,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r570625727-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -219,6 +279,42 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r463013941-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>463013941</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>A favorite stop in Rosenberg.  Clean, convenient and quiet.</t>
+  </si>
+  <si>
+    <t>We have stayed here twice a year for several years.  The property is well maintained and the rooms are always clean, quiet and comfortable.  The breakfast is nothing to write home about.  They do supply USA Today and the local newspaper.  We will likely return in the summer.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r430900722-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>430900722</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overnight stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have stayed here in the past and it has always accommodated us just fine. It is a clean place and friendly staff. I give it a 2 thumbs up. They do have a small breakfast with the usual make your own waffles etc. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r385138845-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -237,9 +333,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r384872372-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -270,6 +363,48 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r319820183-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>319820183</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>Pretty decent place</t>
+  </si>
+  <si>
+    <t>Nice enough room for the price.  Didn't spend much time in the room.  Convenient location very close to the county fairgrounds, 59, and 36.  Almost no places to speak of for congregation outdoors or in the lobby.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r310971922-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>310971922</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Clean rooms, friendly front desk staff.</t>
+  </si>
+  <si>
+    <t>I was in Rosenberg for some training at their new conference center, which is right next door to this hotel.  The hotel was clean.  The front desk staff was friendly and helpful.  The breakfast was very limited, but I don't really expect a lot when it is free anymore.  On my 2nd day there I forgot to put up my Do Not Disturb sign (I personally don't think the room needs to be cleaned when I am only there for two nights) so they came in and cleaned.  When I got back from the conference center the bed was stripped, with the blankets over on the desk and the clean sheets on the bed.  Clearly the maid had started and then got distracted and forgot to finish making the bed.  When I called the front desk (at 5:00pm) I was told the cleaning staff was already gone, but they would call them back in.  I did not want them to have to do that so I said I would make the bed myself.  Minutes later the manager showed up and made the bed himself.  I was impressed.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>I was in Rosenberg for some training at their new conference center, which is right next door to this hotel.  The hotel was clean.  The front desk staff was friendly and helpful.  The breakfast was very limited, but I don't really expect a lot when it is free anymore.  On my 2nd day there I forgot to put up my Do Not Disturb sign (I personally don't think the room needs to be cleaned when I am only there for two nights) so they came in and cleaned.  When I got back from the conference center the bed was stripped, with the blankets over on the desk and the clean sheets on the bed.  Clearly the maid had started and then got distracted and forgot to finish making the bed.  When I called the front desk (at 5:00pm) I was told the cleaning staff was already gone, but they would call them back in.  I did not want them to have to do that so I said I would make the bed myself.  Minutes later the manager showed up and made the bed himself.  I was impressed.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r309032350-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -333,6 +468,45 @@
     <t>My son had checked in here earlier, party of two.  I came a bit later, party of one.  I specifically asked for the best price.  The clerk (Molly) spend some minutes on the computer, ostensibly looking for my best possible rate.  She finally announced that $110 was the best she could do.  So I took her at her word and accepted the price.  As chance would have it, my room was immediately next door to my son's.  The rooms  were identical.  We naturally compared rates.  He got his for $90 and mine was $110 (plus tax).  Identical rooms.  Two in his party, one in mine.He took it upon himself to speak to the front desk on my behalf.  Different clerk by now.  Clerk said he didn't have code to change the rate, but morning clerk would.  My son left very early and I decided to go by the front desk myself.  I was told, in a bit of a flippant tone, that no one could change my rate and I should have negotiated a better price when I checked in.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r259475372-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>259475372</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>I will stay here again.</t>
+  </si>
+  <si>
+    <t>Bottom line is, I will stay here again as well as recommend others to do so. This is your basic Comfort Inn with great staff, superior bed &amp; pillows, a nice size TV &amp; a fridge a bit larger than most. They have an outdoor pool &amp; an indoor workout room. I was in a handicap room so the bathroom was roomy with a walk in shower. Parking can be tight when it's full &amp; I wish they had a selection of convenience items for a headache I had. The breakfast looked good, but I did not get to eat. I did enjoy the paper they had out in the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Bottom line is, I will stay here again as well as recommend others to do so. This is your basic Comfort Inn with great staff, superior bed &amp; pillows, a nice size TV &amp; a fridge a bit larger than most. They have an outdoor pool &amp; an indoor workout room. I was in a handicap room so the bathroom was roomy with a walk in shower. Parking can be tight when it's full &amp; I wish they had a selection of convenience items for a headache I had. The breakfast looked good, but I did not get to eat. I did enjoy the paper they had out in the lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r256579658-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>256579658</t>
+  </si>
+  <si>
+    <t>02/26/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay in Rosenberg</t>
+  </si>
+  <si>
+    <t>We have been staying at this property for the last seven or eight years, and the property is consistently well kept.  The rooms are spacious and very comfortable (great beds).  The staff is friendly and the breakfast is quite good (eggs, meat, fruit, waffles, cereal, pastries, yogurt, etc.)  They supply a USA Today.  TV channels offer a good selection.  We stay here twice a year, and will surely be back this summer.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r235590085-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -387,6 +561,42 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r194335767-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>194335767</t>
+  </si>
+  <si>
+    <t>02/16/2014</t>
+  </si>
+  <si>
+    <t>Nice stay. Clean pool</t>
+  </si>
+  <si>
+    <t>Check in was average. Rooms were average, but clean. Still I made my kid wear socks, carpets could be newer. The pool was great, super clean. Breakfast was good and all the staff seemed nice enough. Would probably stay again if needed.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r190985121-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>190985121</t>
+  </si>
+  <si>
+    <t>01/15/2014</t>
+  </si>
+  <si>
+    <t>This is a nice place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The man at the counter had a good sense of humor and was pleasant to talk to.  He gave us a good rate and the room is better than the cost, which, on this trip, is a nice surprise.  Those rooms we had in that tourist-trap of a New Orleans (whatta rip) are a far cry below this beside-the-freeway normal hotel.  I can't believe all the praise given to hotels there and their cost is over twice the cost of this way better hotel.  This a nice quiet hotel...thanks for the referral. </t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r175820552-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -402,9 +612,6 @@
     <t>This is a basic hotel. It was generally clean and service was pretty decent. The breakfast was super simple and I opted to go to the waffle house close by (driving but not walking distance) for Breakfast rather than eat at the hotel. They rope off the breakfast area at 9:00 a.m. The problem is that the water fountain is inside this roped off area.</t>
   </si>
   <si>
-    <t>August 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r147826300-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -436,6 +643,45 @@
   </si>
   <si>
     <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r110587798-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>110587798</t>
+  </si>
+  <si>
+    <t>05/30/2011</t>
+  </si>
+  <si>
+    <t>clean and comfortable</t>
+  </si>
+  <si>
+    <t>hotel is old,  but very clean and comfortable, friendly staff, fairly priced...</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r62674492-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>62674492</t>
+  </si>
+  <si>
+    <t>04/28/2010</t>
+  </si>
+  <si>
+    <t>Amazing Sleep</t>
+  </si>
+  <si>
+    <t>If I could take their bed and pillows home, I would.  I have stayed at this hotel a few times.  Each time, I look forward to falling asleep on their comfortable beds.  This hotel is one of the expensive ones in Rosenberg (around $90 to $110 per night).  I only pay this when my back is out from sleeping at the budget hotels in the area, and I desperately need a good night's sleep.  The breakfast is good--cereal, make your own waffles, pre-packaged biscuit/sausage and pre-packaged danishes, bagels, some fresh fruit like bananas and apples.  You have to get the bkfast before 9am. They put all the stuff away.  It is really hard to wake up and get breakfast because the beds are so comfortable.The A/C unit is not as quiet as I would have thought it should be.  But I was too tired and slept through the night.I have not used the pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>If I could take their bed and pillows home, I would.  I have stayed at this hotel a few times.  Each time, I look forward to falling asleep on their comfortable beds.  This hotel is one of the expensive ones in Rosenberg (around $90 to $110 per night).  I only pay this when my back is out from sleeping at the budget hotels in the area, and I desperately need a good night's sleep.  The breakfast is good--cereal, make your own waffles, pre-packaged biscuit/sausage and pre-packaged danishes, bagels, some fresh fruit like bananas and apples.  You have to get the bkfast before 9am. They put all the stuff away.  It is really hard to wake up and get breakfast because the beds are so comfortable.The A/C unit is not as quiet as I would have thought it should be.  But I was too tired and slept through the night.I have not used the pool.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d124459-r18378750-Comfort_Inn_Rosenberg-Rosenberg_Texas.html</t>
@@ -988,7 +1234,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -998,10 +1244,14 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1045,13 +1295,13 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1081,7 +1331,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1090,39 +1340,45 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1138,7 +1394,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1147,25 +1403,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1179,7 +1435,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1463,22 @@
         <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1236,7 +1492,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1252,7 +1508,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1261,43 +1517,39 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1313,7 +1565,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1322,34 +1574,34 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>4</v>
@@ -1360,7 +1612,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -1376,7 +1628,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1385,43 +1637,39 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
         <v>53</v>
       </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -1437,7 +1685,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1446,45 +1694,39 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -1512,22 +1754,22 @@
         <v>106</v>
       </c>
       <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" t="s">
         <v>107</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>108</v>
       </c>
-      <c r="L11" t="s">
-        <v>109</v>
-      </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="O11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1541,7 +1783,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -1557,7 +1799,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1566,35 +1808,35 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
         <v>112</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>113</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>114</v>
       </c>
-      <c r="L12" t="s">
-        <v>115</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>116</v>
-      </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1602,7 +1844,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -1618,7 +1860,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1627,41 +1869,35 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
         <v>118</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>119</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>120</v>
       </c>
-      <c r="L13" t="s">
+      <c r="O13" t="s">
         <v>121</v>
       </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="s">
-        <v>122</v>
-      </c>
-      <c r="O13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2</v>
-      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1669,7 +1905,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
@@ -1685,7 +1921,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1694,41 +1930,37 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
         <v>124</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>125</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>126</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>127</v>
       </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>128</v>
-      </c>
       <c r="O14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1736,7 +1968,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -1773,25 +2005,25 @@
         <v>133</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="n">
         <v>5</v>
       </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1799,7 +2031,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
@@ -1815,7 +2047,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1824,41 +2056,35 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
         <v>53</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1866,7 +2092,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
@@ -1882,7 +2108,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -1891,41 +2117,37 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1933,7 +2155,840 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>144</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>148</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" t="s">
+        <v>191</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>192</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>186</v>
+      </c>
+      <c r="O25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>208</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" t="s">
+        <v>212</v>
+      </c>
+      <c r="L28" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>214</v>
+      </c>
+      <c r="O28" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29" t="s">
+        <v>219</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>220</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36088</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>223</v>
+      </c>
+      <c r="J30" t="s">
+        <v>224</v>
+      </c>
+      <c r="K30" t="s">
+        <v>225</v>
+      </c>
+      <c r="L30" t="s">
+        <v>226</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
